--- a/src/assets/docs/gurukripa_shg/Ferbuary-2024/ഗുരുകൃപ SHG - ഓഡിറ്റ്-February-18-2024.xlsx
+++ b/src/assets/docs/gurukripa_shg/Ferbuary-2024/ഗുരുകൃപ SHG - ഓഡിറ്റ്-February-18-2024.xlsx
@@ -134,12 +134,6 @@
     <t xml:space="preserve">പുറം പലിശ(10K) </t>
   </si>
   <si>
-    <t xml:space="preserve">പുറം വായ്പ (INTEREST 3%) </t>
-  </si>
-  <si>
-    <t>പുറം പലിശ (INTEREST 3%)</t>
-  </si>
-  <si>
     <t>HOSPITAL EMERGENCY</t>
   </si>
   <si>
@@ -185,7 +179,13 @@
     <t xml:space="preserve">ഓണം അഡ്വാൻസ് </t>
   </si>
   <si>
-    <t>ലോൺ അഡ്ജസ്റ്മെന്റ്സ്  (Old Bank Withdrawal)</t>
+    <t>ലോൺ അഡ്ജസ്റ്മെന്റ്സ്  (IDCB Loan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ബിസിനസ്സ്  വായ്പ (ROI 3%) </t>
+  </si>
+  <si>
+    <t>ബിസിനസ്സ്  പലിശ (ROI 3%)</t>
   </si>
 </sst>
 </file>
@@ -606,42 +606,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,6 +618,42 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -997,35 +997,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
       <c r="Q1" s="10">
         <v>45338</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="56"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="I3" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="I3" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
@@ -1084,7 +1084,7 @@
         <v>18</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S5" s="17" t="s">
         <v>9</v>
@@ -1130,7 +1130,7 @@
       <c r="N6" s="27">
         <v>900</v>
       </c>
-      <c r="O6" s="62">
+      <c r="O6" s="50">
         <v>0</v>
       </c>
       <c r="P6" s="28"/>
@@ -1187,7 +1187,7 @@
       <c r="N7" s="27">
         <v>200</v>
       </c>
-      <c r="O7" s="62">
+      <c r="O7" s="50">
         <v>0</v>
       </c>
       <c r="P7" s="28"/>
@@ -1244,7 +1244,7 @@
       <c r="N8" s="27">
         <v>1100</v>
       </c>
-      <c r="O8" s="62">
+      <c r="O8" s="50">
         <v>1100</v>
       </c>
       <c r="P8" s="28"/>
@@ -1301,7 +1301,7 @@
       <c r="N9" s="27">
         <v>200</v>
       </c>
-      <c r="O9" s="62">
+      <c r="O9" s="50">
         <v>0</v>
       </c>
       <c r="P9" s="28"/>
@@ -1358,7 +1358,7 @@
       <c r="N10" s="27">
         <v>0</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="50">
         <v>0</v>
       </c>
       <c r="P10" s="28"/>
@@ -1415,7 +1415,7 @@
       <c r="N11" s="27">
         <v>600</v>
       </c>
-      <c r="O11" s="62">
+      <c r="O11" s="50">
         <v>400</v>
       </c>
       <c r="P11" s="28"/>
@@ -1472,7 +1472,7 @@
       <c r="N12" s="27">
         <v>0</v>
       </c>
-      <c r="O12" s="62">
+      <c r="O12" s="50">
         <v>0</v>
       </c>
       <c r="P12" s="28"/>
@@ -1529,7 +1529,7 @@
       <c r="N13" s="27">
         <v>0</v>
       </c>
-      <c r="O13" s="62">
+      <c r="O13" s="50">
         <v>200</v>
       </c>
       <c r="P13" s="28"/>
@@ -1586,7 +1586,7 @@
       <c r="N14" s="27">
         <v>400</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="50">
         <v>0</v>
       </c>
       <c r="P14" s="28"/>
@@ -1643,7 +1643,7 @@
       <c r="N15" s="27">
         <v>400</v>
       </c>
-      <c r="O15" s="62">
+      <c r="O15" s="50">
         <v>400</v>
       </c>
       <c r="P15" s="28"/>
@@ -1700,7 +1700,7 @@
       <c r="N16" s="27">
         <v>0</v>
       </c>
-      <c r="O16" s="62">
+      <c r="O16" s="50">
         <v>200</v>
       </c>
       <c r="P16" s="28"/>
@@ -1757,7 +1757,7 @@
       <c r="N17" s="27">
         <v>600</v>
       </c>
-      <c r="O17" s="62">
+      <c r="O17" s="50">
         <v>0</v>
       </c>
       <c r="P17" s="28"/>
@@ -1814,7 +1814,7 @@
       <c r="N18" s="27">
         <v>200</v>
       </c>
-      <c r="O18" s="62">
+      <c r="O18" s="50">
         <v>800</v>
       </c>
       <c r="P18" s="28"/>
@@ -1871,7 +1871,7 @@
       <c r="N19" s="27">
         <v>800</v>
       </c>
-      <c r="O19" s="62">
+      <c r="O19" s="50">
         <v>400</v>
       </c>
       <c r="P19" s="28"/>
@@ -2062,25 +2062,25 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
       <c r="P1" s="10">
         <v>45338</v>
       </c>
       <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="56"/>
+      <c r="B2" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="61"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2095,22 +2095,22 @@
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
+      <c r="I3" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="19">
         <v>550</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>50</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
@@ -2830,25 +2830,25 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
       <c r="P1" s="10">
         <v>45338</v>
       </c>
       <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="51"/>
+      <c r="B2" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="56"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2863,22 +2863,22 @@
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
+      <c r="I3" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
       <c r="P3" s="19">
         <v>550</v>
       </c>
@@ -3585,7 +3585,7 @@
   </sheetPr>
   <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -3595,9 +3595,9 @@
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="51" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="7" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="7" customWidth="1"/>
@@ -3607,26 +3607,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="62"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="E3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="57"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="E3" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="K3" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="K3" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
@@ -3650,31 +3650,31 @@
         <v>25</v>
       </c>
       <c r="G5" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="24" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3702,7 +3702,7 @@
       <c r="H6" s="34">
         <v>1200</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="52">
         <v>622</v>
       </c>
       <c r="J6" s="37">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="34"/>
-      <c r="I7" s="64">
+      <c r="I7" s="52">
         <v>622</v>
       </c>
       <c r="J7" s="37">
@@ -3778,18 +3778,16 @@
       <c r="H8" s="34">
         <v>2700</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="52">
         <v>622</v>
       </c>
-      <c r="J8" s="37">
-        <v>1000</v>
-      </c>
+      <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
       <c r="M8" s="41"/>
       <c r="N8" s="33">
         <f t="shared" si="0"/>
-        <v>14722</v>
+        <v>13722</v>
       </c>
       <c r="O8" s="38"/>
     </row>
@@ -3816,7 +3814,7 @@
         <v>10000</v>
       </c>
       <c r="H9" s="34">
-        <v>900</v>
+        <v>1950</v>
       </c>
       <c r="I9" s="37">
         <v>622</v>
@@ -3835,7 +3833,7 @@
       </c>
       <c r="N9" s="33">
         <f t="shared" si="0"/>
-        <v>24672</v>
+        <v>25722</v>
       </c>
       <c r="O9" s="38"/>
     </row>
@@ -3864,7 +3862,7 @@
       <c r="H10" s="34">
         <v>1200</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="52">
         <v>622</v>
       </c>
       <c r="J10" s="37">
@@ -3898,24 +3896,18 @@
         <f>'പലിശ(10k)'!Q11</f>
         <v>50</v>
       </c>
-      <c r="G11" s="37">
-        <v>10000</v>
-      </c>
-      <c r="H11" s="34">
-        <v>2300</v>
-      </c>
-      <c r="I11" s="64">
+      <c r="G11" s="37"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="52">
         <v>622</v>
       </c>
-      <c r="J11" s="37">
-        <v>0</v>
-      </c>
+      <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
       <c r="M11" s="41"/>
       <c r="N11" s="33">
         <f t="shared" si="0"/>
-        <v>13022</v>
+        <v>722</v>
       </c>
       <c r="O11" s="38"/>
     </row>
@@ -3942,9 +3934,9 @@
         <v>5000</v>
       </c>
       <c r="H12" s="34">
-        <v>1250</v>
-      </c>
-      <c r="I12" s="64">
+        <v>1050</v>
+      </c>
+      <c r="I12" s="52">
         <v>622</v>
       </c>
       <c r="J12" s="37">
@@ -3955,7 +3947,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="33">
         <f t="shared" si="0"/>
-        <v>14772</v>
+        <v>14572</v>
       </c>
       <c r="O12" s="38"/>
     </row>
@@ -3990,16 +3982,14 @@
       <c r="J13" s="37">
         <v>1000</v>
       </c>
-      <c r="K13" s="37">
-        <v>500</v>
-      </c>
+      <c r="K13" s="37"/>
       <c r="L13" s="40">
         <v>200</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="33">
         <f t="shared" si="0"/>
-        <v>17972</v>
+        <v>17472</v>
       </c>
       <c r="O13" s="38"/>
     </row>
@@ -4027,9 +4017,7 @@
       <c r="I14" s="37">
         <v>622</v>
       </c>
-      <c r="J14" s="37">
-        <v>0</v>
-      </c>
+      <c r="J14" s="37"/>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="41">
@@ -4062,7 +4050,7 @@
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
-      <c r="I15" s="64">
+      <c r="I15" s="52">
         <v>0</v>
       </c>
       <c r="J15" s="37">
@@ -4077,7 +4065,7 @@
       </c>
       <c r="O15" s="38"/>
     </row>
-    <row r="16" spans="2:15" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34">
         <v>11</v>
       </c>
@@ -4121,7 +4109,7 @@
         <f t="shared" si="0"/>
         <v>27322</v>
       </c>
-      <c r="O16" s="65"/>
+      <c r="O16" s="53"/>
     </row>
     <row r="17" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34">
@@ -4146,20 +4134,18 @@
         <v>5000</v>
       </c>
       <c r="H17" s="34">
-        <v>450</v>
-      </c>
-      <c r="I17" s="64">
+        <v>1050</v>
+      </c>
+      <c r="I17" s="52">
         <v>622</v>
       </c>
-      <c r="J17" s="34">
-        <v>0</v>
-      </c>
+      <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="41"/>
       <c r="N17" s="33">
         <f t="shared" si="0"/>
-        <v>8572</v>
+        <v>9172</v>
       </c>
       <c r="O17" s="38"/>
     </row>
@@ -4186,9 +4172,9 @@
         <v>5000</v>
       </c>
       <c r="H18" s="34">
-        <v>900</v>
-      </c>
-      <c r="I18" s="64">
+        <v>1200</v>
+      </c>
+      <c r="I18" s="52">
         <v>622</v>
       </c>
       <c r="J18" s="34">
@@ -4199,7 +4185,7 @@
       <c r="M18" s="41"/>
       <c r="N18" s="33">
         <f t="shared" si="0"/>
-        <v>7622</v>
+        <v>7922</v>
       </c>
       <c r="O18" s="38"/>
     </row>
@@ -4226,20 +4212,18 @@
         <v>10000</v>
       </c>
       <c r="H19" s="34">
-        <v>1200</v>
-      </c>
-      <c r="I19" s="64">
+        <v>900</v>
+      </c>
+      <c r="I19" s="52">
         <v>622</v>
       </c>
-      <c r="J19" s="34">
-        <v>0</v>
-      </c>
+      <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="41"/>
       <c r="N19" s="33">
         <f>SUM(D19:M19)</f>
-        <v>12122</v>
+        <v>11822</v>
       </c>
       <c r="O19" s="38"/>
     </row>
@@ -4266,11 +4250,11 @@
       </c>
       <c r="G21" s="34">
         <f>SUM(G6:G19)</f>
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="H21" s="34">
         <f>SUM(H6:H20)</f>
-        <v>17200</v>
+        <v>16350</v>
       </c>
       <c r="I21" s="34">
         <f>SUM(I2:I20)</f>
@@ -4278,11 +4262,11 @@
       </c>
       <c r="J21" s="34">
         <f>SUM(J6:J20)</f>
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="K21" s="34">
         <f>SUM(K6:K19)</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L21" s="34">
         <f>SUM(L6:L19)</f>
@@ -4294,7 +4278,7 @@
       </c>
       <c r="N21" s="43">
         <f>SUM(N6:N20)</f>
-        <v>195436</v>
+        <v>183086</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/docs/gurukripa_shg/Ferbuary-2024/ഗുരുകൃപ SHG - ഓഡിറ്റ്-February-18-2024.xlsx
+++ b/src/assets/docs/gurukripa_shg/Ferbuary-2024/ഗുരുകൃപ SHG - ഓഡിറ്റ്-February-18-2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="നിക്ഷേപം" sheetId="5" r:id="rId1"/>
@@ -164,12 +164,6 @@
     <t>Last updated 16-02-2024</t>
   </si>
   <si>
-    <t>TOTAL SHARE PER HEAD AS ON 16-02-2024</t>
-  </si>
-  <si>
-    <t>TOTAL INTEREST TO BE PAID AS ON 16-02-2024</t>
-  </si>
-  <si>
     <t>TOTAL MONTHLY FEE TO BE PAID AS ON 17-02-2024</t>
   </si>
   <si>
@@ -187,12 +181,18 @@
   <si>
     <t>ബിസിനസ്സ്  പലിശ (ROI 3%)</t>
   </si>
+  <si>
+    <t>TOTAL SHARE PER HEAD AS ON 18-02-2024</t>
+  </si>
+  <si>
+    <t>TOTAL INTEREST TO BE PAID AS ON 18-02-2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,8 +306,31 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +390,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -471,25 +500,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -499,13 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -518,7 +662,6 @@
     <xf numFmtId="17" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,7 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,9 +702,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,23 +729,15 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,6 +750,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,6 +788,66 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -976,1050 +1170,1059 @@
   </sheetPr>
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView topLeftCell="A13" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="7"/>
-    <col min="12" max="12" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
-    <col min="14" max="14" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
+    <col min="14" max="15" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="7"/>
+    <col min="17" max="17" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="10">
-        <v>45338</v>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="6">
+        <v>45339</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="N2" s="26"/>
+      <c r="C2" s="45"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="I3" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="19">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="I3" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="13">
         <v>87300</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:19" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="78">
         <v>45017</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="79">
         <v>45047</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="79">
         <v>45078</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="79">
         <v>45108</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="79">
         <v>45139</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="79">
         <v>45170</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="79">
         <v>45200</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="79">
         <v>45231</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="79">
         <v>45281</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="79">
         <v>45292</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="79">
         <v>45323</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="79">
         <v>45017</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="6" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="68">
         <v>78500</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
         <v>200</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="29">
         <v>600</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="69">
         <v>600</v>
       </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
         <v>200</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="29">
         <v>500</v>
       </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="27">
+      <c r="L6" s="29">
+        <v>0</v>
+      </c>
+      <c r="M6" s="69">
         <v>200</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="69">
         <v>900</v>
       </c>
-      <c r="O6" s="50">
-        <v>0</v>
-      </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="2">
+      <c r="O6" s="70">
+        <v>0</v>
+      </c>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="26">
         <f>SUM(E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6)</f>
         <v>3200</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="26">
         <f>D6+Q6</f>
         <v>81700</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="43">
         <f>Q3-R6</f>
         <v>5600</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="7" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="68">
         <v>78500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="26">
         <v>600</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="26">
         <v>600</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="29">
         <v>1000</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="69">
         <v>1000</v>
       </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
         <v>400</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="29">
         <v>800</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="29">
         <v>200</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="69">
         <v>600</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="69">
         <v>200</v>
       </c>
-      <c r="O7" s="50">
-        <v>0</v>
-      </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="2">
+      <c r="O7" s="70">
+        <v>0</v>
+      </c>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="26">
         <f t="shared" ref="Q7:Q19" si="0">SUM(E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7)</f>
         <v>5400</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="26">
         <f t="shared" ref="R7:R19" si="1">D7+Q7</f>
         <v>83900</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="43">
         <f>Q3-R7</f>
         <v>3400</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="8" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="26">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="68">
         <v>78500</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="26">
         <v>600</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="26">
         <v>600</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="29">
         <v>600</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="69">
         <v>400</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="29">
         <v>600</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="29">
         <v>1400</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="29">
         <v>800</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="29">
         <v>400</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="69">
         <v>1200</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="69">
         <v>1100</v>
       </c>
-      <c r="O8" s="50">
+      <c r="O8" s="70">
         <v>1100</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="2">
+      <c r="P8" s="71"/>
+      <c r="Q8" s="26">
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="26">
         <f t="shared" si="1"/>
         <v>87300</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="43">
         <f>Q3-R8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+    <row r="9" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="68">
         <v>78500</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="26">
         <v>600</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="26">
         <v>600</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27">
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="69">
         <v>600</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="29">
         <v>200</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="29">
         <v>200</v>
       </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="27">
+      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29">
+        <v>0</v>
+      </c>
+      <c r="M9" s="69">
         <v>600</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="69">
         <v>200</v>
       </c>
-      <c r="O9" s="50">
-        <v>0</v>
-      </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="2">
+      <c r="O9" s="70">
+        <v>0</v>
+      </c>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="26">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="26">
         <f t="shared" si="1"/>
         <v>81500</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="43">
         <f>Q3-R9</f>
         <v>5800</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="10" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="68">
         <v>78500</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="26">
         <v>600</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="26">
         <v>1200</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="29">
         <v>400</v>
       </c>
-      <c r="H10" s="27">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="27">
-        <v>0</v>
-      </c>
-      <c r="N10" s="27">
-        <v>0</v>
-      </c>
-      <c r="O10" s="50">
-        <v>0</v>
-      </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="2">
+      <c r="H10" s="69">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0</v>
+      </c>
+      <c r="J10" s="29">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29">
+        <v>0</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0</v>
+      </c>
+      <c r="M10" s="69">
+        <v>0</v>
+      </c>
+      <c r="N10" s="69">
+        <v>0</v>
+      </c>
+      <c r="O10" s="70">
+        <v>0</v>
+      </c>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="26">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="26">
         <f t="shared" si="1"/>
         <v>80700</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="43">
         <f>Q3-R10</f>
         <v>6600</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+    <row r="11" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="26">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="68">
         <v>78500</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="26">
         <v>450</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="26">
         <v>1150</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="29">
         <v>800</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="69">
         <v>1000</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="29">
         <v>600</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="29">
         <v>800</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="29">
         <v>1200</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="29">
         <v>800</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="69">
         <v>1000</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="69">
         <v>600</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="70">
         <v>400</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="2">
+      <c r="P11" s="71"/>
+      <c r="Q11" s="26">
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="26">
         <f t="shared" si="1"/>
         <v>87300</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="43">
         <f>Q3-R11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="12" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="26">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="68">
         <v>78500</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="26">
         <v>450</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="26">
         <v>200</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="29">
         <v>650</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="69">
         <v>200</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="29">
         <v>200</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="J12" s="29">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29">
         <v>600</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="29">
         <v>600</v>
       </c>
-      <c r="M12" s="27">
-        <v>0</v>
-      </c>
-      <c r="N12" s="27">
-        <v>0</v>
-      </c>
-      <c r="O12" s="50">
-        <v>0</v>
-      </c>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="2">
+      <c r="M12" s="69">
+        <v>0</v>
+      </c>
+      <c r="N12" s="69">
+        <v>0</v>
+      </c>
+      <c r="O12" s="70">
+        <v>0</v>
+      </c>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="26">
         <f t="shared" si="0"/>
         <v>2900</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="26">
         <f t="shared" si="1"/>
         <v>81400</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="43">
         <f>Q3-R12</f>
         <v>5900</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="13" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="68">
         <v>78500</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="26">
         <v>600</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="26">
         <v>1000</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="29">
         <v>800</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="69">
         <v>1000</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="29">
         <v>800</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="29">
         <v>600</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="29">
         <v>200</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="29">
         <v>600</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="69">
         <v>600</v>
       </c>
-      <c r="N13" s="27">
-        <v>0</v>
-      </c>
-      <c r="O13" s="50">
+      <c r="N13" s="69">
+        <v>0</v>
+      </c>
+      <c r="O13" s="70">
         <v>200</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="2">
+      <c r="P13" s="71"/>
+      <c r="Q13" s="26">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="26">
         <f t="shared" si="1"/>
         <v>84900</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="43">
         <f>Q3-R13</f>
         <v>2400</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="14" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="26">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="68">
         <v>78500</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="26">
         <v>450</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="26">
         <v>950</v>
       </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="69">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
         <v>1200</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="29">
         <v>200</v>
       </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="27">
-        <v>0</v>
-      </c>
-      <c r="N14" s="27">
+      <c r="L14" s="29">
+        <v>0</v>
+      </c>
+      <c r="M14" s="69">
+        <v>0</v>
+      </c>
+      <c r="N14" s="69">
         <v>400</v>
       </c>
-      <c r="O14" s="50">
-        <v>0</v>
-      </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="2">
+      <c r="O14" s="70">
+        <v>0</v>
+      </c>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="26">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="26">
         <f t="shared" si="1"/>
         <v>81700</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="43">
         <f>Q3-R14</f>
         <v>5600</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+    <row r="15" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="26">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="68">
         <v>78500</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="26">
         <v>450</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="26">
         <v>800</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="29">
         <v>1150</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="69">
         <v>1000</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="29">
         <v>600</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="29">
         <v>800</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="29">
         <v>800</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="29">
         <v>600</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="69">
         <v>800</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="69">
         <v>400</v>
       </c>
-      <c r="O15" s="50">
+      <c r="O15" s="70">
         <v>400</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="2">
+      <c r="P15" s="71"/>
+      <c r="Q15" s="26">
         <f t="shared" si="0"/>
         <v>7800</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="26">
         <f t="shared" si="1"/>
         <v>86300</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="43">
         <f>Q3-R15</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+    <row r="16" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="26">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="68">
         <v>78500</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="26">
         <v>600</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="26">
         <v>1000</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="29">
         <v>600</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="69">
         <v>400</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="29">
         <v>400</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="29">
         <v>400</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="29">
         <v>800</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="29">
         <v>200</v>
       </c>
-      <c r="M16" s="27">
-        <v>0</v>
-      </c>
-      <c r="N16" s="27">
-        <v>0</v>
-      </c>
-      <c r="O16" s="50">
+      <c r="M16" s="69">
+        <v>0</v>
+      </c>
+      <c r="N16" s="69">
+        <v>0</v>
+      </c>
+      <c r="O16" s="70">
         <v>200</v>
       </c>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="2">
+      <c r="P16" s="71"/>
+      <c r="Q16" s="26">
         <f t="shared" si="0"/>
         <v>4600</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="26">
         <f t="shared" si="1"/>
         <v>83100</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="43">
         <f>Q3-R16</f>
         <v>4200</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+    <row r="17" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="26">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="68">
         <v>78500</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="26">
         <v>600</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="26">
         <v>400</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="29">
         <v>600</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="69">
         <v>1800</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="29">
         <v>400</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="29">
         <v>200</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="29">
         <v>500</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="29">
         <v>1400</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="69">
         <v>200</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="69">
         <v>600</v>
       </c>
-      <c r="O17" s="50">
-        <v>0</v>
-      </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="2">
+      <c r="O17" s="70">
+        <v>0</v>
+      </c>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="26">
         <f t="shared" si="0"/>
         <v>6700</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="26">
         <f t="shared" si="1"/>
         <v>85200</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="43">
         <f>Q3-R17</f>
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+    <row r="18" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="68">
         <v>78500</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="26">
         <v>600</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="26">
         <v>800</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="29">
         <v>1000</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="69">
         <v>1000</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="29">
         <v>800</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="29">
         <v>800</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="29">
         <v>800</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="29">
         <v>1000</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="69">
         <v>1000</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="69">
         <v>200</v>
       </c>
-      <c r="O18" s="50">
+      <c r="O18" s="70">
         <v>800</v>
       </c>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="2">
+      <c r="P18" s="71"/>
+      <c r="Q18" s="26">
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="26">
         <f t="shared" si="1"/>
         <v>87300</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="43">
         <f>Q3-R18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+    <row r="19" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="26">
         <v>14</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="68">
         <v>78500</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="26">
         <v>600</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="26">
         <v>1000</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="29">
         <v>600</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="69">
         <v>1000</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="29">
         <v>800</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="29">
         <v>1000</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="29">
         <v>1000</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="29">
         <v>400</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="69">
         <v>1200</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="69">
         <v>800</v>
       </c>
-      <c r="O19" s="50">
+      <c r="O19" s="70">
         <v>400</v>
       </c>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="2">
+      <c r="P19" s="71"/>
+      <c r="Q19" s="26">
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="26">
         <f t="shared" si="1"/>
         <v>87300</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="43">
         <f>Q3-R19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
+    <row r="20" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:19" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="58"/>
+      <c r="C21" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="73">
         <f t="shared" ref="D21:O21" si="2">SUM(D6:D19)</f>
         <v>1099000</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="43">
         <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="43">
         <f t="shared" si="2"/>
         <v>10500</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="43">
         <f t="shared" si="2"/>
         <v>8800</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="43">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="43">
         <f t="shared" si="2"/>
         <v>5400</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="43">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="43">
         <f t="shared" si="2"/>
         <v>8200</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="43">
         <f t="shared" si="2"/>
         <v>6200</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="43">
         <f t="shared" si="2"/>
         <v>7400</v>
       </c>
-      <c r="N21" s="44">
+      <c r="N21" s="43">
         <f t="shared" si="2"/>
         <v>5400</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="43">
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="P21" s="74"/>
+      <c r="Q21" s="43">
         <f t="shared" ref="Q21:S21" si="3">SUM(Q6:Q19)</f>
         <v>80600</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R21" s="43">
         <f t="shared" si="3"/>
         <v>1179600</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="72">
         <f t="shared" si="3"/>
         <v>42600</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="49"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C24" s="11" t="s">
+    <row r="22" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="38"/>
+    </row>
+    <row r="23" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+    </row>
+    <row r="24" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="77">
         <f>SUM(R6:R19)</f>
         <v>1179600</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="67">
         <f>D21+E21</f>
         <v>1106200</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="67">
         <f>E24+F21</f>
         <v>1116700</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="67">
         <f>F24+G21</f>
         <v>1125500</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="67">
         <f>G24+H21</f>
         <v>1135500</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="67">
         <f>H24+I21</f>
         <v>1140900</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="67">
         <f>I24+J21</f>
         <v>1148900</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="67">
         <f t="shared" ref="K24:O24" si="4">J24+K21</f>
         <v>1157100</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="67">
         <f t="shared" si="4"/>
         <v>1163300</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="67">
         <f t="shared" si="4"/>
         <v>1170700</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="67">
         <f>M24+N21</f>
         <v>1176100</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="67">
         <f t="shared" si="4"/>
         <v>1179600</v>
       </c>
@@ -2031,7 +2234,7 @@
     <mergeCell ref="I3:L3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="N21" formulaRange="1"/>
   </ignoredErrors>
@@ -2045,752 +2248,752 @@
   </sheetPr>
   <dimension ref="B1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
     <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="55" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="10">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="6">
         <v>45338</v>
       </c>
-      <c r="Q1" s="7"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="26"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="20"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="19">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="13">
         <v>550</v>
       </c>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="2:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="9">
         <v>45017</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>45047</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="10">
         <v>45078</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="10">
         <v>45108</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <v>45139</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="10">
         <v>45170</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="10">
         <v>45200</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="10">
         <v>45231</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="10">
         <v>45281</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="10">
         <v>45292</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="10">
         <v>45323</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="10">
         <v>45352</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="6" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="2">
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="1">
         <f t="shared" ref="P6:P19" si="0">SUM(D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6)</f>
         <v>50</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="11">
         <f>P3-P6</f>
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="7" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="2">
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="11">
         <f>P3-P7</f>
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="8" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2">
-        <v>50</v>
-      </c>
-      <c r="I8" s="2">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2">
-        <v>50</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="2">
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="1">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="11">
         <f>P3-P8</f>
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+    <row r="9" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2">
-        <v>50</v>
-      </c>
-      <c r="H9" s="2">
-        <v>50</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="2">
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
+        <v>50</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="1">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="11">
         <f>P3-P9</f>
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="10" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="2">
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="11">
         <f>P3-P10</f>
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+    <row r="11" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2">
-        <v>50</v>
-      </c>
-      <c r="G11" s="2">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2">
-        <v>50</v>
-      </c>
-      <c r="I11" s="2">
-        <v>50</v>
-      </c>
-      <c r="J11" s="2">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2">
-        <v>50</v>
-      </c>
-      <c r="L11" s="27">
-        <v>50</v>
-      </c>
-      <c r="M11" s="27">
-        <v>50</v>
-      </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="2">
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1">
+        <v>50</v>
+      </c>
+      <c r="L11" s="21">
+        <v>50</v>
+      </c>
+      <c r="M11" s="21">
+        <v>50</v>
+      </c>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="11">
         <f>P3-P11</f>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="12" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="17">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
         <f>P3-P12</f>
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="13" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2">
-        <v>50</v>
-      </c>
-      <c r="G13" s="2">
-        <v>50</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="2">
+      <c r="D13" s="1">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="1">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="11">
         <f>P3-P13</f>
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="14" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2">
-        <v>50</v>
-      </c>
-      <c r="H14" s="2">
-        <v>50</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="2">
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="1">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="11">
         <f>P3-P14</f>
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+    <row r="15" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2">
-        <v>50</v>
-      </c>
-      <c r="F15" s="8">
-        <v>50</v>
-      </c>
-      <c r="G15" s="8">
-        <v>50</v>
-      </c>
-      <c r="H15" s="8">
-        <v>50</v>
-      </c>
-      <c r="I15" s="8">
-        <v>50</v>
-      </c>
-      <c r="J15" s="8">
-        <v>50</v>
-      </c>
-      <c r="K15" s="8">
-        <v>50</v>
-      </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="2">
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5">
+        <v>50</v>
+      </c>
+      <c r="I15" s="5">
+        <v>50</v>
+      </c>
+      <c r="J15" s="5">
+        <v>50</v>
+      </c>
+      <c r="K15" s="5">
+        <v>50</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="1">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="11">
         <f>P3-P15</f>
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+    <row r="16" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2">
-        <v>50</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="2">
+      <c r="D16" s="1">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="11">
         <f>P3-P16</f>
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+    <row r="17" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2">
-        <v>50</v>
-      </c>
-      <c r="E17" s="2">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2">
-        <v>50</v>
-      </c>
-      <c r="G17" s="2">
-        <v>50</v>
-      </c>
-      <c r="H17" s="8">
-        <v>50</v>
-      </c>
-      <c r="I17" s="8">
-        <v>50</v>
-      </c>
-      <c r="J17" s="8">
-        <v>50</v>
-      </c>
-      <c r="K17" s="8">
-        <v>50</v>
-      </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="2">
+      <c r="D17" s="1">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1">
+        <v>50</v>
+      </c>
+      <c r="H17" s="5">
+        <v>50</v>
+      </c>
+      <c r="I17" s="5">
+        <v>50</v>
+      </c>
+      <c r="J17" s="5">
+        <v>50</v>
+      </c>
+      <c r="K17" s="5">
+        <v>50</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="1">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="11">
         <f>P3-P17</f>
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+    <row r="18" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2">
-        <v>50</v>
-      </c>
-      <c r="G18" s="2">
-        <v>50</v>
-      </c>
-      <c r="H18" s="8">
-        <v>50</v>
-      </c>
-      <c r="I18" s="8">
-        <v>50</v>
-      </c>
-      <c r="J18" s="8">
-        <v>50</v>
-      </c>
-      <c r="K18" s="8">
-        <v>50</v>
-      </c>
-      <c r="L18" s="27">
-        <v>50</v>
-      </c>
-      <c r="M18" s="27">
-        <v>50</v>
-      </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="2">
+      <c r="D18" s="1">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1">
+        <v>50</v>
+      </c>
+      <c r="H18" s="5">
+        <v>50</v>
+      </c>
+      <c r="I18" s="5">
+        <v>50</v>
+      </c>
+      <c r="J18" s="5">
+        <v>50</v>
+      </c>
+      <c r="K18" s="5">
+        <v>50</v>
+      </c>
+      <c r="L18" s="21">
+        <v>50</v>
+      </c>
+      <c r="M18" s="21">
+        <v>50</v>
+      </c>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="11">
         <f>P3-P18</f>
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+    <row r="19" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2">
-        <v>50</v>
-      </c>
-      <c r="E19" s="2">
-        <v>50</v>
-      </c>
-      <c r="F19" s="2">
-        <v>50</v>
-      </c>
-      <c r="G19" s="2">
-        <v>50</v>
-      </c>
-      <c r="H19" s="2">
-        <v>50</v>
-      </c>
-      <c r="I19" s="2">
-        <v>50</v>
-      </c>
-      <c r="J19" s="2">
-        <v>50</v>
-      </c>
-      <c r="K19" s="2">
-        <v>50</v>
-      </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="2">
+      <c r="D19" s="1">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1">
+        <v>50</v>
+      </c>
+      <c r="K19" s="1">
+        <v>50</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="1">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="11">
         <f>P3-P19</f>
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
+    <row r="20" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="8">
         <f t="shared" ref="D21:Q21" si="1">SUM(D6:D19)</f>
         <v>650</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="8">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="8">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="8">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="8">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="8">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="8">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="8">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="22">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="23">
         <f t="shared" si="1"/>
         <v>3700</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="23">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
@@ -2813,756 +3016,756 @@
   </sheetPr>
   <dimension ref="B1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.140625" style="4"/>
     <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="55" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="10">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="6">
         <v>45338</v>
       </c>
-      <c r="Q1" s="7"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="26"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="20"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="19">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="13">
         <v>550</v>
       </c>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="2:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="9">
         <v>45017</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>45047</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="10">
         <v>45078</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="10">
         <v>45108</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <v>45139</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="10">
         <v>45170</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="10">
         <v>45200</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="10">
         <v>45231</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="10">
         <v>45281</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="10">
         <v>45292</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="10">
         <v>45323</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="10">
         <v>45352</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="6" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8">
-        <v>50</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="2">
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="1">
         <f>SUM(D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6)</f>
         <v>150</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="11">
         <f>P3-P6</f>
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="7" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="2">
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="1">
         <f t="shared" ref="P7:P19" si="0">SUM(D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7)</f>
         <v>250</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="11">
         <f>P3-P7</f>
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="8" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2">
-        <v>50</v>
-      </c>
-      <c r="I8" s="2">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2">
-        <v>50</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="2">
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1">
+        <v>50</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="1">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="11">
         <f>P3-P8</f>
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+    <row r="9" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2">
-        <v>50</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="2">
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="1">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="11">
         <f>P3-P9</f>
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="10" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="Q10" s="17">
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Q10" s="11">
         <f>P3-P10</f>
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+    <row r="11" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2">
-        <v>50</v>
-      </c>
-      <c r="G11" s="2">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2">
-        <v>50</v>
-      </c>
-      <c r="I11" s="2">
-        <v>50</v>
-      </c>
-      <c r="J11" s="2">
-        <v>50</v>
-      </c>
-      <c r="K11" s="2">
-        <v>50</v>
-      </c>
-      <c r="L11" s="27">
-        <v>50</v>
-      </c>
-      <c r="M11" s="27">
-        <v>50</v>
-      </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="2">
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1">
+        <v>50</v>
+      </c>
+      <c r="L11" s="21">
+        <v>50</v>
+      </c>
+      <c r="M11" s="21">
+        <v>50</v>
+      </c>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="11">
         <f>P3-P11</f>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="12" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="2">
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="11">
         <f>P3-P12</f>
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="13" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2">
-        <v>50</v>
-      </c>
-      <c r="G13" s="8">
-        <v>50</v>
-      </c>
-      <c r="H13" s="8">
-        <v>50</v>
-      </c>
-      <c r="I13" s="8">
-        <v>50</v>
-      </c>
-      <c r="J13" s="8">
-        <v>50</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="2">
+      <c r="D13" s="1">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5">
+        <v>50</v>
+      </c>
+      <c r="H13" s="5">
+        <v>50</v>
+      </c>
+      <c r="I13" s="5">
+        <v>50</v>
+      </c>
+      <c r="J13" s="5">
+        <v>50</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="1">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="11">
         <f>P3-P13</f>
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="14" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="2">
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="11">
         <f>P3-P14</f>
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+    <row r="15" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2">
-        <v>50</v>
-      </c>
-      <c r="F15" s="8">
-        <v>50</v>
-      </c>
-      <c r="G15" s="8">
-        <v>50</v>
-      </c>
-      <c r="H15" s="8">
-        <v>50</v>
-      </c>
-      <c r="I15" s="8">
-        <v>50</v>
-      </c>
-      <c r="J15" s="8">
-        <v>50</v>
-      </c>
-      <c r="K15" s="8">
-        <v>50</v>
-      </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="2">
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5">
+        <v>50</v>
+      </c>
+      <c r="I15" s="5">
+        <v>50</v>
+      </c>
+      <c r="J15" s="5">
+        <v>50</v>
+      </c>
+      <c r="K15" s="5">
+        <v>50</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="1">
         <f>SUM(D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15)</f>
         <v>400</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="11">
         <f>P3-P15</f>
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+    <row r="16" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2">
-        <v>50</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="2">
+      <c r="D16" s="1">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="11">
         <f>P3-P16</f>
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
+    <row r="17" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2">
-        <v>50</v>
-      </c>
-      <c r="E17" s="2">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2">
-        <v>50</v>
-      </c>
-      <c r="G17" s="2">
-        <v>50</v>
-      </c>
-      <c r="H17" s="2">
-        <v>50</v>
-      </c>
-      <c r="I17" s="8">
-        <v>50</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="2">
+      <c r="D17" s="1">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1">
+        <v>50</v>
+      </c>
+      <c r="I17" s="5">
+        <v>50</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="11">
         <f>P3-P17</f>
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+    <row r="18" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2">
-        <v>50</v>
-      </c>
-      <c r="G18" s="2">
-        <v>50</v>
-      </c>
-      <c r="H18" s="2">
-        <v>50</v>
-      </c>
-      <c r="I18" s="2">
-        <v>50</v>
-      </c>
-      <c r="J18" s="2">
-        <v>50</v>
-      </c>
-      <c r="K18" s="2">
-        <v>50</v>
-      </c>
-      <c r="L18" s="27">
-        <v>50</v>
-      </c>
-      <c r="M18" s="27">
-        <v>50</v>
-      </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="2">
+      <c r="D18" s="1">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+      <c r="F18" s="1">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1">
+        <v>50</v>
+      </c>
+      <c r="J18" s="1">
+        <v>50</v>
+      </c>
+      <c r="K18" s="1">
+        <v>50</v>
+      </c>
+      <c r="L18" s="21">
+        <v>50</v>
+      </c>
+      <c r="M18" s="21">
+        <v>50</v>
+      </c>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="1">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="11">
         <f>P3-P18</f>
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+    <row r="19" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2">
-        <v>50</v>
-      </c>
-      <c r="E19" s="2">
-        <v>50</v>
-      </c>
-      <c r="F19" s="2">
-        <v>50</v>
-      </c>
-      <c r="G19" s="2">
-        <v>50</v>
-      </c>
-      <c r="H19" s="2">
-        <v>50</v>
-      </c>
-      <c r="I19" s="2">
-        <v>50</v>
-      </c>
-      <c r="J19" s="2">
-        <v>50</v>
-      </c>
-      <c r="K19" s="2">
-        <v>50</v>
-      </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="2">
+      <c r="D19" s="1">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1">
+        <v>50</v>
+      </c>
+      <c r="K19" s="1">
+        <v>50</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="1">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="11">
         <f>P3-P19</f>
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
+    <row r="20" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="23">
         <f t="shared" ref="D21:Q21" si="1">SUM(D6:D19)</f>
         <v>700</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="23">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="23">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="23">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="23">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="23">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="23">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="23">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="23">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="M21" s="30">
+      <c r="M21" s="23">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="23">
         <f t="shared" si="1"/>
         <v>3850</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="Q21" s="23">
         <f t="shared" si="1"/>
         <v>3850</v>
       </c>
@@ -3585,8 +3788,8 @@
   </sheetPr>
   <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,689 +3797,689 @@
     <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="4" customWidth="1"/>
     <col min="15" max="15" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="E3" s="66" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="E3" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="K3" s="63" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="K3" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="2:15" s="7" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:15" s="4" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="24" t="s">
+      <c r="G5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="24" t="s">
+      <c r="I5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+    <row r="6" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="26">
         <f>നിക്ഷേപം!S6</f>
         <v>5600</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="26">
         <f>മാസവരി!Q6</f>
         <v>400</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="28">
         <f>'പലിശ(10k)'!Q6</f>
         <v>500</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="29">
         <v>10000</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="26">
         <v>1200</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="40">
         <v>622</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="29">
         <v>1000</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="33">
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="25">
         <f>SUM(D6:M6)</f>
         <v>19322</v>
       </c>
-      <c r="O6" s="38"/>
-    </row>
-    <row r="7" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34">
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="C7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
         <f>നിക്ഷേപം!S7</f>
         <v>3400</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="26">
         <f>മാസവരി!Q7</f>
         <v>300</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="28">
         <f>'പലിശ(10k)'!Q7</f>
         <v>400</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="52">
+      <c r="G7" s="29"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="40">
         <v>622</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="29">
         <v>1000</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="33">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="25">
         <f t="shared" ref="N7:N18" si="0">SUM(D7:M7)</f>
         <v>5722</v>
       </c>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="34">
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="26">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="26">
         <f>നിക്ഷേപം!S8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="26">
         <f>മാസവരി!Q8</f>
         <v>200</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="28">
         <f>'പലിശ(10k)'!Q8</f>
         <v>200</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="29">
         <v>10000</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="26">
         <v>2700</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="40">
         <v>622</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="33">
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="25">
         <f t="shared" si="0"/>
         <v>13722</v>
       </c>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="34">
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26">
         <v>4</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="26">
         <f>നിക്ഷേപം!S9</f>
         <v>5800</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="26">
         <f>മാസവരി!Q9</f>
         <v>350</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="28">
         <f>'പലിശ(10k)'!Q9</f>
         <v>300</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="29">
         <v>10000</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="26">
         <v>1950</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="29">
         <v>622</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="29">
         <v>1000</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="29">
         <v>500</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="29">
         <v>200</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="33">
         <v>5000</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="25">
         <f t="shared" si="0"/>
         <v>25722</v>
       </c>
-      <c r="O9" s="38"/>
-    </row>
-    <row r="10" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="34">
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26">
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="26">
         <f>നിക്ഷേപം!S10</f>
         <v>6600</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="26">
         <f>മാസവരി!Q10</f>
         <v>500</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="28">
         <f>'പലിശ(10k)'!Q10</f>
         <v>450</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="29">
         <v>5000</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="26">
         <v>1200</v>
       </c>
-      <c r="I10" s="52">
+      <c r="I10" s="40">
         <v>622</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="29">
         <v>1000</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="33">
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="25">
         <f t="shared" si="0"/>
         <v>15372</v>
       </c>
-      <c r="O10" s="38"/>
-    </row>
-    <row r="11" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="34">
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="26">
         <v>6</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="26">
         <f>നിക്ഷേപം!S11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="26">
         <f>മാസവരി!Q11</f>
         <v>50</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="28">
         <f>'പലിശ(10k)'!Q11</f>
         <v>50</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="52">
+      <c r="G11" s="29"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="40">
         <v>622</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="33">
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="25">
         <f t="shared" si="0"/>
         <v>722</v>
       </c>
-      <c r="O11" s="38"/>
-    </row>
-    <row r="12" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="26">
         <v>7</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="26">
         <f>നിക്ഷേപം!S12</f>
         <v>5900</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="26">
         <f>മാസവരി!Q12</f>
         <v>450</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="28">
         <f>'പലിശ(10k)'!Q12</f>
         <v>550</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="29">
         <v>5000</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="26">
         <v>1050</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="40">
         <v>622</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="29">
         <v>1000</v>
       </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="33">
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="25">
         <f t="shared" si="0"/>
         <v>14572</v>
       </c>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34">
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26">
         <v>8</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="26">
         <f>നിക്ഷേപം!S13</f>
         <v>2400</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="26">
         <f>മാസവരി!Q13</f>
         <v>200</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="28">
         <f>'പലിശ(10k)'!Q13</f>
         <v>350</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="29">
         <v>10000</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="26">
         <v>2700</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="29">
         <v>622</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="29">
         <v>1000</v>
       </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="40">
+      <c r="K13" s="29"/>
+      <c r="L13" s="32">
         <v>200</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="33">
+      <c r="M13" s="33"/>
+      <c r="N13" s="25">
         <f t="shared" si="0"/>
         <v>17472</v>
       </c>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34">
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="26">
         <v>9</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="26">
         <f>നിക്ഷേപം!S14</f>
         <v>5600</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="26">
         <f>മാസവരി!Q14</f>
         <v>400</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="28">
         <f>'പലിശ(10k)'!Q14</f>
         <v>300</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="37">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="29">
         <v>622</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="41">
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="33">
         <v>5000</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="25">
         <f t="shared" si="0"/>
         <v>11922</v>
       </c>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="34">
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="26">
         <v>10</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="26">
         <f>നിക്ഷേപം!S15</f>
         <v>1000</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="26">
         <f>മാസവരി!Q15</f>
         <v>150</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="28">
         <f>'പലിശ(10k)'!Q15</f>
         <v>150</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="52">
-        <v>0</v>
-      </c>
-      <c r="J15" s="37">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="40">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
         <v>1000</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="33">
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="25">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="2:15" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="2:15" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
         <v>11</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="26">
         <f>നിക്ഷേപം!S16</f>
         <v>4200</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="26">
         <f>മാസവരി!Q16</f>
         <v>400</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="28">
         <f>'പലിശ(10k)'!Q16</f>
         <v>400</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="29">
         <v>10000</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="26">
         <v>2400</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="29">
         <v>622</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="29">
         <v>1000</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="29">
         <v>500</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="29">
         <v>300</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="33">
         <v>7500</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="36">
         <f t="shared" si="0"/>
         <v>27322</v>
       </c>
-      <c r="O16" s="53"/>
-    </row>
-    <row r="17" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="34">
+      <c r="O16" s="41"/>
+    </row>
+    <row r="17" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="26">
         <v>12</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="26">
         <f>നിക്ഷേപം!S17</f>
         <v>2100</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="26">
         <f>മാസവരി!Q17</f>
         <v>250</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="28">
         <f>'പലിശ(10k)'!Q17</f>
         <v>150</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="29">
         <v>5000</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="26">
         <v>1050</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="40">
         <v>622</v>
       </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="33">
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="25">
         <f t="shared" si="0"/>
         <v>9172</v>
       </c>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="34">
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26">
         <v>13</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="26">
         <f>നിക്ഷേപം!S18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="26">
         <f>മാസവരി!Q18</f>
         <v>50</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="28">
         <f>'പലിശ(10k)'!Q18</f>
         <v>50</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="26">
         <v>5000</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="26">
         <v>1200</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="40">
         <v>622</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="26">
         <v>1000</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="33">
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="25">
         <f t="shared" si="0"/>
         <v>7922</v>
       </c>
-      <c r="O18" s="38"/>
-    </row>
-    <row r="19" spans="2:15" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34">
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="26">
         <v>14</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="26">
         <f>നിക്ഷേപം!S19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="26">
         <f>മാസവരി!Q19</f>
         <v>150</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="28">
         <f>'പലിശ(10k)'!Q19</f>
         <v>150</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="26">
         <v>10000</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="26">
         <v>900</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="40">
         <v>622</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="33">
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="25">
         <f>SUM(D19:M19)</f>
         <v>11822</v>
       </c>
-      <c r="O19" s="38"/>
+      <c r="O19" s="30"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="2:15" s="39" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="35" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:15" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="26">
         <f>SUM(D6:D19)</f>
         <v>42600</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="26">
         <f>SUM(E6:E19)</f>
         <v>3850</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="33">
         <f>SUM(F6:F19)</f>
         <v>4000</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="26">
         <f>SUM(G6:G19)</f>
         <v>80000</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="26">
         <f>SUM(H6:H20)</f>
         <v>16350</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="26">
         <f>SUM(I2:I20)</f>
         <v>8086</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="26">
         <f>SUM(J6:J20)</f>
         <v>9000</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="26">
         <f>SUM(K6:K19)</f>
         <v>1000</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="26">
         <f>SUM(L6:L19)</f>
         <v>700</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="33">
         <f>SUM(M6:M19)</f>
         <v>17500</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="35">
         <f>SUM(N6:N20)</f>
         <v>183086</v>
       </c>
@@ -4288,7 +4491,7 @@
     <mergeCell ref="E3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/assets/docs/gurukripa_shg/Ferbuary-2024/ഗുരുകൃപ SHG - ഓഡിറ്റ്-February-18-2024.xlsx
+++ b/src/assets/docs/gurukripa_shg/Ferbuary-2024/ഗുരുകൃപ SHG - ഓഡിറ്റ്-February-18-2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="നിക്ഷേപം" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>അമൽ</t>
   </si>
@@ -161,9 +161,6 @@
     <t xml:space="preserve">*February 18 - 2024 വരെയുള്ള കണക്കുകൾ ഉൾപ്പെടുത്തിയിരിക്കുന്നു  </t>
   </si>
   <si>
-    <t>Last updated 16-02-2024</t>
-  </si>
-  <si>
     <t>TOTAL MONTHLY FEE TO BE PAID AS ON 17-02-2024</t>
   </si>
   <si>
@@ -186,6 +183,13 @@
   </si>
   <si>
     <t>TOTAL INTEREST TO BE PAID AS ON 18-02-2024</t>
+  </si>
+  <si>
+    <t>HOSPITAL EMERGENCY
+(Fine 3%)</t>
+  </si>
+  <si>
+    <t>Last updated 19-02-2024</t>
   </si>
 </sst>
 </file>
@@ -632,7 +636,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,65 +733,26 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,6 +813,48 @@
     </xf>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1170,8 +1177,8 @@
   </sheetPr>
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,41 +1197,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
       <c r="Q1" s="6">
-        <v>45339</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="69"/>
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="I3" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="I3" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
-      <c r="O3" s="56"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="13">
-        <v>87300</v>
+        <v>87500</v>
       </c>
     </row>
     <row r="5" spans="2:19" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,40 +1244,40 @@
       <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="65">
         <v>45017</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="66">
         <v>45047</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="66">
         <v>45078</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="66">
         <v>45108</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="66">
         <v>45139</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="66">
         <v>45170</v>
       </c>
-      <c r="K5" s="79">
+      <c r="K5" s="66">
         <v>45200</v>
       </c>
-      <c r="L5" s="79">
+      <c r="L5" s="66">
         <v>45231</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="66">
         <v>45281</v>
       </c>
-      <c r="N5" s="79">
+      <c r="N5" s="66">
         <v>45292</v>
       </c>
-      <c r="O5" s="79">
+      <c r="O5" s="66">
         <v>45323</v>
       </c>
-      <c r="P5" s="79">
+      <c r="P5" s="66">
         <v>45017</v>
       </c>
       <c r="Q5" s="12" t="s">
@@ -1290,7 +1297,7 @@
       <c r="C6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="55">
         <v>78500</v>
       </c>
       <c r="E6" s="26">
@@ -1302,7 +1309,7 @@
       <c r="G6" s="29">
         <v>600</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="56">
         <v>600</v>
       </c>
       <c r="I6" s="29">
@@ -1317,16 +1324,16 @@
       <c r="L6" s="29">
         <v>0</v>
       </c>
-      <c r="M6" s="69">
+      <c r="M6" s="56">
         <v>200</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="56">
         <v>900</v>
       </c>
-      <c r="O6" s="70">
-        <v>0</v>
-      </c>
-      <c r="P6" s="71"/>
+      <c r="O6" s="57">
+        <v>0</v>
+      </c>
+      <c r="P6" s="58"/>
       <c r="Q6" s="26">
         <f>SUM(E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6,P6)</f>
         <v>3200</v>
@@ -1335,9 +1342,9 @@
         <f>D6+Q6</f>
         <v>81700</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="42">
         <f>Q3-R6</f>
-        <v>5600</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1347,7 +1354,7 @@
       <c r="C7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="55">
         <v>78500</v>
       </c>
       <c r="E7" s="26">
@@ -1359,7 +1366,7 @@
       <c r="G7" s="29">
         <v>1000</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="56">
         <v>1000</v>
       </c>
       <c r="I7" s="29">
@@ -1374,16 +1381,16 @@
       <c r="L7" s="29">
         <v>200</v>
       </c>
-      <c r="M7" s="69">
+      <c r="M7" s="56">
         <v>600</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="56">
         <v>200</v>
       </c>
-      <c r="O7" s="70">
-        <v>0</v>
-      </c>
-      <c r="P7" s="71"/>
+      <c r="O7" s="57">
+        <v>0</v>
+      </c>
+      <c r="P7" s="58"/>
       <c r="Q7" s="26">
         <f t="shared" ref="Q7:Q19" si="0">SUM(E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7,P7)</f>
         <v>5400</v>
@@ -1392,9 +1399,9 @@
         <f t="shared" ref="R7:R19" si="1">D7+Q7</f>
         <v>83900</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="42">
         <f>Q3-R7</f>
-        <v>3400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1404,7 +1411,7 @@
       <c r="C8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="55">
         <v>78500</v>
       </c>
       <c r="E8" s="26">
@@ -1416,7 +1423,7 @@
       <c r="G8" s="29">
         <v>600</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="56">
         <v>400</v>
       </c>
       <c r="I8" s="29">
@@ -1431,25 +1438,25 @@
       <c r="L8" s="29">
         <v>400</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="56">
         <v>1200</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="56">
         <v>1100</v>
       </c>
-      <c r="O8" s="70">
-        <v>1100</v>
-      </c>
-      <c r="P8" s="71"/>
+      <c r="O8" s="57">
+        <v>1300</v>
+      </c>
+      <c r="P8" s="58"/>
       <c r="Q8" s="26">
         <f t="shared" si="0"/>
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="R8" s="26">
         <f t="shared" si="1"/>
-        <v>87300</v>
-      </c>
-      <c r="S8" s="43">
+        <v>87500</v>
+      </c>
+      <c r="S8" s="42">
         <f>Q3-R8</f>
         <v>0</v>
       </c>
@@ -1461,7 +1468,7 @@
       <c r="C9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="55">
         <v>78500</v>
       </c>
       <c r="E9" s="26">
@@ -1473,7 +1480,7 @@
       <c r="G9" s="29">
         <v>0</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="56">
         <v>600</v>
       </c>
       <c r="I9" s="29">
@@ -1488,16 +1495,16 @@
       <c r="L9" s="29">
         <v>0</v>
       </c>
-      <c r="M9" s="69">
+      <c r="M9" s="56">
         <v>600</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="56">
         <v>200</v>
       </c>
-      <c r="O9" s="70">
-        <v>0</v>
-      </c>
-      <c r="P9" s="71"/>
+      <c r="O9" s="57">
+        <v>0</v>
+      </c>
+      <c r="P9" s="58"/>
       <c r="Q9" s="26">
         <f t="shared" si="0"/>
         <v>3000</v>
@@ -1506,9 +1513,9 @@
         <f t="shared" si="1"/>
         <v>81500</v>
       </c>
-      <c r="S9" s="43">
+      <c r="S9" s="42">
         <f>Q3-R9</f>
-        <v>5800</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1518,7 +1525,7 @@
       <c r="C10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="55">
         <v>78500</v>
       </c>
       <c r="E10" s="26">
@@ -1530,7 +1537,7 @@
       <c r="G10" s="29">
         <v>400</v>
       </c>
-      <c r="H10" s="69">
+      <c r="H10" s="56">
         <v>0</v>
       </c>
       <c r="I10" s="29">
@@ -1545,16 +1552,16 @@
       <c r="L10" s="29">
         <v>0</v>
       </c>
-      <c r="M10" s="69">
-        <v>0</v>
-      </c>
-      <c r="N10" s="69">
-        <v>0</v>
-      </c>
-      <c r="O10" s="70">
-        <v>0</v>
-      </c>
-      <c r="P10" s="71"/>
+      <c r="M10" s="56">
+        <v>0</v>
+      </c>
+      <c r="N10" s="56">
+        <v>0</v>
+      </c>
+      <c r="O10" s="57">
+        <v>0</v>
+      </c>
+      <c r="P10" s="58"/>
       <c r="Q10" s="26">
         <f t="shared" si="0"/>
         <v>2200</v>
@@ -1563,9 +1570,9 @@
         <f t="shared" si="1"/>
         <v>80700</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="42">
         <f>Q3-R10</f>
-        <v>6600</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1575,7 +1582,7 @@
       <c r="C11" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="55">
         <v>78500</v>
       </c>
       <c r="E11" s="26">
@@ -1587,7 +1594,7 @@
       <c r="G11" s="29">
         <v>800</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="56">
         <v>1000</v>
       </c>
       <c r="I11" s="29">
@@ -1602,25 +1609,25 @@
       <c r="L11" s="29">
         <v>800</v>
       </c>
-      <c r="M11" s="69">
+      <c r="M11" s="56">
         <v>1000</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="56">
         <v>600</v>
       </c>
-      <c r="O11" s="70">
-        <v>400</v>
-      </c>
-      <c r="P11" s="71"/>
+      <c r="O11" s="57">
+        <v>600</v>
+      </c>
+      <c r="P11" s="58"/>
       <c r="Q11" s="26">
         <f t="shared" si="0"/>
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="R11" s="26">
         <f t="shared" si="1"/>
-        <v>87300</v>
-      </c>
-      <c r="S11" s="43">
+        <v>87500</v>
+      </c>
+      <c r="S11" s="42">
         <f>Q3-R11</f>
         <v>0</v>
       </c>
@@ -1632,7 +1639,7 @@
       <c r="C12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="55">
         <v>78500</v>
       </c>
       <c r="E12" s="26">
@@ -1644,7 +1651,7 @@
       <c r="G12" s="29">
         <v>650</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="56">
         <v>200</v>
       </c>
       <c r="I12" s="29">
@@ -1659,16 +1666,16 @@
       <c r="L12" s="29">
         <v>600</v>
       </c>
-      <c r="M12" s="69">
-        <v>0</v>
-      </c>
-      <c r="N12" s="69">
-        <v>0</v>
-      </c>
-      <c r="O12" s="70">
-        <v>0</v>
-      </c>
-      <c r="P12" s="71"/>
+      <c r="M12" s="56">
+        <v>0</v>
+      </c>
+      <c r="N12" s="56">
+        <v>0</v>
+      </c>
+      <c r="O12" s="57">
+        <v>0</v>
+      </c>
+      <c r="P12" s="58"/>
       <c r="Q12" s="26">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -1677,9 +1684,9 @@
         <f t="shared" si="1"/>
         <v>81400</v>
       </c>
-      <c r="S12" s="43">
+      <c r="S12" s="42">
         <f>Q3-R12</f>
-        <v>5900</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1689,7 +1696,7 @@
       <c r="C13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="55">
         <v>78500</v>
       </c>
       <c r="E13" s="26">
@@ -1701,7 +1708,7 @@
       <c r="G13" s="29">
         <v>800</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="56">
         <v>1000</v>
       </c>
       <c r="I13" s="29">
@@ -1716,16 +1723,16 @@
       <c r="L13" s="29">
         <v>600</v>
       </c>
-      <c r="M13" s="69">
+      <c r="M13" s="56">
         <v>600</v>
       </c>
-      <c r="N13" s="69">
-        <v>0</v>
-      </c>
-      <c r="O13" s="70">
+      <c r="N13" s="56">
+        <v>0</v>
+      </c>
+      <c r="O13" s="57">
         <v>200</v>
       </c>
-      <c r="P13" s="71"/>
+      <c r="P13" s="58"/>
       <c r="Q13" s="26">
         <f t="shared" si="0"/>
         <v>6400</v>
@@ -1734,9 +1741,9 @@
         <f t="shared" si="1"/>
         <v>84900</v>
       </c>
-      <c r="S13" s="43">
+      <c r="S13" s="42">
         <f>Q3-R13</f>
-        <v>2400</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1746,7 +1753,7 @@
       <c r="C14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="55">
         <v>78500</v>
       </c>
       <c r="E14" s="26">
@@ -1758,7 +1765,7 @@
       <c r="G14" s="29">
         <v>0</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="56">
         <v>0</v>
       </c>
       <c r="I14" s="29">
@@ -1773,16 +1780,16 @@
       <c r="L14" s="29">
         <v>0</v>
       </c>
-      <c r="M14" s="69">
-        <v>0</v>
-      </c>
-      <c r="N14" s="69">
+      <c r="M14" s="56">
+        <v>0</v>
+      </c>
+      <c r="N14" s="56">
         <v>400</v>
       </c>
-      <c r="O14" s="70">
-        <v>0</v>
-      </c>
-      <c r="P14" s="71"/>
+      <c r="O14" s="57">
+        <v>0</v>
+      </c>
+      <c r="P14" s="58"/>
       <c r="Q14" s="26">
         <f t="shared" si="0"/>
         <v>3200</v>
@@ -1791,9 +1798,9 @@
         <f t="shared" si="1"/>
         <v>81700</v>
       </c>
-      <c r="S14" s="43">
+      <c r="S14" s="42">
         <f>Q3-R14</f>
-        <v>5600</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1803,7 +1810,7 @@
       <c r="C15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="55">
         <v>78500</v>
       </c>
       <c r="E15" s="26">
@@ -1815,7 +1822,7 @@
       <c r="G15" s="29">
         <v>1150</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="56">
         <v>1000</v>
       </c>
       <c r="I15" s="29">
@@ -1830,16 +1837,16 @@
       <c r="L15" s="29">
         <v>600</v>
       </c>
-      <c r="M15" s="69">
+      <c r="M15" s="56">
         <v>800</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="56">
         <v>400</v>
       </c>
-      <c r="O15" s="70">
+      <c r="O15" s="57">
         <v>400</v>
       </c>
-      <c r="P15" s="71"/>
+      <c r="P15" s="58"/>
       <c r="Q15" s="26">
         <f t="shared" si="0"/>
         <v>7800</v>
@@ -1848,9 +1855,9 @@
         <f t="shared" si="1"/>
         <v>86300</v>
       </c>
-      <c r="S15" s="43">
+      <c r="S15" s="42">
         <f>Q3-R15</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1860,7 +1867,7 @@
       <c r="C16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="55">
         <v>78500</v>
       </c>
       <c r="E16" s="26">
@@ -1872,7 +1879,7 @@
       <c r="G16" s="29">
         <v>600</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="56">
         <v>400</v>
       </c>
       <c r="I16" s="29">
@@ -1887,16 +1894,16 @@
       <c r="L16" s="29">
         <v>200</v>
       </c>
-      <c r="M16" s="69">
-        <v>0</v>
-      </c>
-      <c r="N16" s="69">
-        <v>0</v>
-      </c>
-      <c r="O16" s="70">
+      <c r="M16" s="56">
+        <v>0</v>
+      </c>
+      <c r="N16" s="56">
+        <v>0</v>
+      </c>
+      <c r="O16" s="57">
         <v>200</v>
       </c>
-      <c r="P16" s="71"/>
+      <c r="P16" s="58"/>
       <c r="Q16" s="26">
         <f t="shared" si="0"/>
         <v>4600</v>
@@ -1905,9 +1912,9 @@
         <f t="shared" si="1"/>
         <v>83100</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="42">
         <f>Q3-R16</f>
-        <v>4200</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1917,7 +1924,7 @@
       <c r="C17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="55">
         <v>78500</v>
       </c>
       <c r="E17" s="26">
@@ -1929,7 +1936,7 @@
       <c r="G17" s="29">
         <v>600</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="56">
         <v>1800</v>
       </c>
       <c r="I17" s="29">
@@ -1944,16 +1951,16 @@
       <c r="L17" s="29">
         <v>1400</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="56">
         <v>200</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="56">
         <v>600</v>
       </c>
-      <c r="O17" s="70">
-        <v>0</v>
-      </c>
-      <c r="P17" s="71"/>
+      <c r="O17" s="57">
+        <v>0</v>
+      </c>
+      <c r="P17" s="58"/>
       <c r="Q17" s="26">
         <f t="shared" si="0"/>
         <v>6700</v>
@@ -1962,9 +1969,9 @@
         <f t="shared" si="1"/>
         <v>85200</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S17" s="42">
         <f>Q3-R17</f>
-        <v>2100</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1974,7 +1981,7 @@
       <c r="C18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="55">
         <v>78500</v>
       </c>
       <c r="E18" s="26">
@@ -1986,7 +1993,7 @@
       <c r="G18" s="29">
         <v>1000</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="56">
         <v>1000</v>
       </c>
       <c r="I18" s="29">
@@ -2001,25 +2008,25 @@
       <c r="L18" s="29">
         <v>1000</v>
       </c>
-      <c r="M18" s="69">
+      <c r="M18" s="56">
         <v>1000</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="56">
         <v>200</v>
       </c>
-      <c r="O18" s="70">
-        <v>800</v>
-      </c>
-      <c r="P18" s="71"/>
+      <c r="O18" s="57">
+        <v>1000</v>
+      </c>
+      <c r="P18" s="58"/>
       <c r="Q18" s="26">
         <f t="shared" si="0"/>
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="R18" s="26">
         <f t="shared" si="1"/>
-        <v>87300</v>
-      </c>
-      <c r="S18" s="43">
+        <v>87500</v>
+      </c>
+      <c r="S18" s="42">
         <f>Q3-R18</f>
         <v>0</v>
       </c>
@@ -2031,7 +2038,7 @@
       <c r="C19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="55">
         <v>78500</v>
       </c>
       <c r="E19" s="26">
@@ -2043,7 +2050,7 @@
       <c r="G19" s="29">
         <v>600</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="56">
         <v>1000</v>
       </c>
       <c r="I19" s="29">
@@ -2058,173 +2065,173 @@
       <c r="L19" s="29">
         <v>400</v>
       </c>
-      <c r="M19" s="69">
+      <c r="M19" s="56">
         <v>1200</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="56">
         <v>800</v>
       </c>
-      <c r="O19" s="70">
-        <v>400</v>
-      </c>
-      <c r="P19" s="71"/>
+      <c r="O19" s="57">
+        <v>600</v>
+      </c>
+      <c r="P19" s="58"/>
       <c r="Q19" s="26">
         <f t="shared" si="0"/>
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="R19" s="26">
         <f t="shared" si="1"/>
-        <v>87300</v>
-      </c>
-      <c r="S19" s="43">
+        <v>87500</v>
+      </c>
+      <c r="S19" s="42">
         <f>Q3-R19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:19" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="75" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="60">
         <f t="shared" ref="D21:O21" si="2">SUM(D6:D19)</f>
         <v>1099000</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="42">
         <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="42">
         <f t="shared" si="2"/>
         <v>10500</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="42">
         <f t="shared" si="2"/>
         <v>8800</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="42">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="42">
         <f t="shared" si="2"/>
         <v>5400</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="42">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="42">
         <f t="shared" si="2"/>
         <v>8200</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="42">
         <f t="shared" si="2"/>
         <v>6200</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="42">
         <f t="shared" si="2"/>
         <v>7400</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="42">
         <f t="shared" si="2"/>
         <v>5400</v>
       </c>
-      <c r="O21" s="43">
+      <c r="O21" s="42">
         <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="43">
+        <v>4300</v>
+      </c>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="42">
         <f t="shared" ref="Q21:S21" si="3">SUM(Q6:Q19)</f>
-        <v>80600</v>
-      </c>
-      <c r="R21" s="43">
+        <v>81400</v>
+      </c>
+      <c r="R21" s="42">
         <f t="shared" si="3"/>
-        <v>1179600</v>
-      </c>
-      <c r="S21" s="72">
+        <v>1180400</v>
+      </c>
+      <c r="S21" s="59">
         <f t="shared" si="3"/>
-        <v>42600</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="38"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
     </row>
     <row r="23" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
     </row>
     <row r="24" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="77">
+      <c r="D24" s="64">
         <f>SUM(R6:R19)</f>
-        <v>1179600</v>
-      </c>
-      <c r="E24" s="67">
+        <v>1180400</v>
+      </c>
+      <c r="E24" s="54">
         <f>D21+E21</f>
         <v>1106200</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="54">
         <f>E24+F21</f>
         <v>1116700</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="54">
         <f>F24+G21</f>
         <v>1125500</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="54">
         <f>G24+H21</f>
         <v>1135500</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="54">
         <f>H24+I21</f>
         <v>1140900</v>
       </c>
-      <c r="J24" s="67">
+      <c r="J24" s="54">
         <f>I24+J21</f>
         <v>1148900</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="54">
         <f t="shared" ref="K24:O24" si="4">J24+K21</f>
         <v>1157100</v>
       </c>
-      <c r="L24" s="67">
+      <c r="L24" s="54">
         <f t="shared" si="4"/>
         <v>1163300</v>
       </c>
-      <c r="M24" s="67">
+      <c r="M24" s="54">
         <f t="shared" si="4"/>
         <v>1170700</v>
       </c>
-      <c r="N24" s="67">
+      <c r="N24" s="54">
         <f>M24+N21</f>
         <v>1176100</v>
       </c>
-      <c r="O24" s="67">
+      <c r="O24" s="54">
         <f t="shared" si="4"/>
-        <v>1179600</v>
+        <v>1180400</v>
       </c>
     </row>
   </sheetData>
@@ -2248,8 +2255,8 @@
   </sheetPr>
   <dimension ref="B1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,25 +2272,25 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="6">
-        <v>45338</v>
+        <v>45341</v>
       </c>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2298,22 +2305,22 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="I3" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
       <c r="P3" s="13">
         <v>550</v>
       </c>
@@ -2475,7 +2482,7 @@
         <v>50</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -2869,15 +2876,17 @@
       <c r="M18" s="21">
         <v>50</v>
       </c>
-      <c r="N18" s="34"/>
+      <c r="N18" s="34">
+        <v>50</v>
+      </c>
       <c r="O18" s="34"/>
       <c r="P18" s="1">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q18" s="11">
         <f>P3-P18</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2938,7 +2947,7 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="44" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="8">
@@ -2983,7 +2992,7 @@
       </c>
       <c r="N21" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O21" s="23">
         <f t="shared" si="1"/>
@@ -2991,11 +3000,11 @@
       </c>
       <c r="P21" s="23">
         <f t="shared" si="1"/>
-        <v>3700</v>
+        <v>3750</v>
       </c>
       <c r="Q21" s="23">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>3950</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +3026,7 @@
   <dimension ref="B1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,25 +3042,25 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="6">
-        <v>45338</v>
+        <v>45341</v>
       </c>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -3066,22 +3075,22 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="I3" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
       <c r="P3" s="13">
         <v>550</v>
       </c>
@@ -3641,15 +3650,17 @@
       <c r="M18" s="21">
         <v>50</v>
       </c>
-      <c r="N18" s="34"/>
+      <c r="N18" s="34">
+        <v>50</v>
+      </c>
       <c r="O18" s="34"/>
       <c r="P18" s="1">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q18" s="11">
         <f>P3-P18</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3755,7 +3766,7 @@
       </c>
       <c r="N21" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O21" s="23">
         <f t="shared" si="1"/>
@@ -3763,11 +3774,11 @@
       </c>
       <c r="P21" s="23">
         <f t="shared" si="1"/>
-        <v>3850</v>
+        <v>3900</v>
       </c>
       <c r="Q21" s="23">
         <f t="shared" si="1"/>
-        <v>3850</v>
+        <v>3800</v>
       </c>
     </row>
   </sheetData>
@@ -3786,10 +3797,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:O21"/>
+  <dimension ref="B2:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,43 +3811,44 @@
     <col min="6" max="6" width="12.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="19" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="4" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="51"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="E3" s="55" t="s">
+      <c r="C2" s="75"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="E3" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="K3" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="K3" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="80"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" s="4" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
@@ -3853,16 +3865,16 @@
         <v>25</v>
       </c>
       <c r="G5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="I5" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="18" t="s">
         <v>28</v>
@@ -3873,14 +3885,17 @@
       <c r="M5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="P5" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="26">
         <v>1</v>
       </c>
@@ -3889,7 +3904,7 @@
       </c>
       <c r="D6" s="26">
         <f>നിക്ഷേപം!S6</f>
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E6" s="26">
         <f>മാസവരി!Q6</f>
@@ -3905,7 +3920,7 @@
       <c r="H6" s="26">
         <v>1200</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <v>622</v>
       </c>
       <c r="J6" s="29">
@@ -3914,13 +3929,14 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="33"/>
-      <c r="N6" s="25">
-        <f>SUM(D6:M6)</f>
-        <v>19322</v>
-      </c>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="33"/>
+      <c r="O6" s="25">
+        <f>SUM(D6:N6)</f>
+        <v>19522</v>
+      </c>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="26">
         <v>2</v>
       </c>
@@ -3929,7 +3945,7 @@
       </c>
       <c r="D7" s="26">
         <f>നിക്ഷേപം!S7</f>
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E7" s="26">
         <f>മാസവരി!Q7</f>
@@ -3941,7 +3957,7 @@
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="40">
+      <c r="I7" s="39">
         <v>622</v>
       </c>
       <c r="J7" s="29">
@@ -3950,13 +3966,14 @@
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="33"/>
-      <c r="N7" s="25">
-        <f t="shared" ref="N7:N18" si="0">SUM(D7:M7)</f>
-        <v>5722</v>
-      </c>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="33"/>
+      <c r="O7" s="67">
+        <f t="shared" ref="O7:O19" si="0">SUM(D7:N7)</f>
+        <v>5922</v>
+      </c>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="26">
         <v>3</v>
       </c>
@@ -3981,20 +3998,21 @@
       <c r="H8" s="26">
         <v>2700</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <v>622</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="33"/>
-      <c r="N8" s="25">
+      <c r="N8" s="33"/>
+      <c r="O8" s="67">
         <f t="shared" si="0"/>
         <v>13722</v>
       </c>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="26">
         <v>4</v>
       </c>
@@ -4003,7 +4021,7 @@
       </c>
       <c r="D9" s="26">
         <f>നിക്ഷേപം!S9</f>
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="E9" s="26">
         <f>മാസവരി!Q9</f>
@@ -4034,13 +4052,16 @@
       <c r="M9" s="33">
         <v>5000</v>
       </c>
-      <c r="N9" s="25">
-        <f t="shared" si="0"/>
-        <v>25722</v>
-      </c>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="33">
+        <v>750</v>
+      </c>
+      <c r="O9" s="67">
+        <f t="shared" si="0"/>
+        <v>26672</v>
+      </c>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26">
         <v>5</v>
       </c>
@@ -4049,7 +4070,7 @@
       </c>
       <c r="D10" s="26">
         <f>നിക്ഷേപം!S10</f>
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="E10" s="26">
         <f>മാസവരി!Q10</f>
@@ -4060,12 +4081,12 @@
         <v>450</v>
       </c>
       <c r="G10" s="29">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="H10" s="26">
         <v>1200</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <v>622</v>
       </c>
       <c r="J10" s="29">
@@ -4074,13 +4095,14 @@
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
       <c r="M10" s="33"/>
-      <c r="N10" s="25">
-        <f t="shared" si="0"/>
-        <v>15372</v>
-      </c>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="33"/>
+      <c r="O10" s="67">
+        <f t="shared" si="0"/>
+        <v>20572</v>
+      </c>
+      <c r="P10" s="30"/>
+    </row>
+    <row r="11" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="26">
         <v>6</v>
       </c>
@@ -4101,20 +4123,21 @@
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="26"/>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <v>622</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
       <c r="M11" s="33"/>
-      <c r="N11" s="25">
+      <c r="N11" s="33"/>
+      <c r="O11" s="67">
         <f t="shared" si="0"/>
         <v>722</v>
       </c>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="30"/>
+    </row>
+    <row r="12" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="26">
         <v>7</v>
       </c>
@@ -4123,7 +4146,7 @@
       </c>
       <c r="D12" s="26">
         <f>നിക്ഷേപം!S12</f>
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="E12" s="26">
         <f>മാസവരി!Q12</f>
@@ -4139,7 +4162,7 @@
       <c r="H12" s="26">
         <v>1050</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <v>622</v>
       </c>
       <c r="J12" s="29">
@@ -4148,13 +4171,14 @@
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
       <c r="M12" s="33"/>
-      <c r="N12" s="25">
-        <f t="shared" si="0"/>
-        <v>14572</v>
-      </c>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="33"/>
+      <c r="O12" s="67">
+        <f t="shared" si="0"/>
+        <v>14772</v>
+      </c>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="26">
         <v>8</v>
       </c>
@@ -4163,7 +4187,7 @@
       </c>
       <c r="D13" s="26">
         <f>നിക്ഷേപം!S13</f>
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E13" s="26">
         <f>മാസവരി!Q13</f>
@@ -4190,13 +4214,14 @@
         <v>200</v>
       </c>
       <c r="M13" s="33"/>
-      <c r="N13" s="25">
-        <f t="shared" si="0"/>
-        <v>17472</v>
-      </c>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="33"/>
+      <c r="O13" s="67">
+        <f t="shared" si="0"/>
+        <v>17672</v>
+      </c>
+      <c r="P13" s="30"/>
+    </row>
+    <row r="14" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="26">
         <v>9</v>
       </c>
@@ -4205,7 +4230,7 @@
       </c>
       <c r="D14" s="26">
         <f>നിക്ഷേപം!S14</f>
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E14" s="26">
         <f>മാസവരി!Q14</f>
@@ -4215,8 +4240,12 @@
         <f>'പലിശ(10k)'!Q14</f>
         <v>300</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="26">
+        <v>10000</v>
+      </c>
+      <c r="H14" s="26">
+        <v>300</v>
+      </c>
       <c r="I14" s="29">
         <v>622</v>
       </c>
@@ -4226,13 +4255,16 @@
       <c r="M14" s="33">
         <v>5000</v>
       </c>
-      <c r="N14" s="25">
-        <f t="shared" si="0"/>
-        <v>11922</v>
-      </c>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="33">
+        <v>1200</v>
+      </c>
+      <c r="O14" s="67">
+        <f>SUM(D14:N14)</f>
+        <v>23622</v>
+      </c>
+      <c r="P14" s="30"/>
+    </row>
+    <row r="15" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26">
         <v>10</v>
       </c>
@@ -4241,7 +4273,7 @@
       </c>
       <c r="D15" s="26">
         <f>നിക്ഷേപം!S15</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="26">
         <f>മാസവരി!Q15</f>
@@ -4253,7 +4285,7 @@
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="40">
+      <c r="I15" s="39">
         <v>0</v>
       </c>
       <c r="J15" s="29">
@@ -4262,13 +4294,14 @@
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="33"/>
-      <c r="N15" s="25">
-        <f t="shared" si="0"/>
-        <v>2300</v>
-      </c>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="2:15" s="42" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="33"/>
+      <c r="O15" s="67">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="P15" s="30"/>
+    </row>
+    <row r="16" spans="2:16" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="26">
         <v>11</v>
       </c>
@@ -4277,7 +4310,7 @@
       </c>
       <c r="D16" s="26">
         <f>നിക്ഷേപം!S16</f>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E16" s="26">
         <f>മാസവരി!Q16</f>
@@ -4308,13 +4341,16 @@
       <c r="M16" s="33">
         <v>7500</v>
       </c>
-      <c r="N16" s="36">
-        <f t="shared" si="0"/>
-        <v>27322</v>
-      </c>
-      <c r="O16" s="41"/>
-    </row>
-    <row r="17" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="33">
+        <v>1575</v>
+      </c>
+      <c r="O16" s="67">
+        <f t="shared" si="0"/>
+        <v>29097</v>
+      </c>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26">
         <v>12</v>
       </c>
@@ -4323,7 +4359,7 @@
       </c>
       <c r="D17" s="26">
         <f>നിക്ഷേപം!S17</f>
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="E17" s="26">
         <f>മാസവരി!Q17</f>
@@ -4339,20 +4375,21 @@
       <c r="H17" s="26">
         <v>1050</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <v>622</v>
       </c>
       <c r="J17" s="26"/>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="33"/>
-      <c r="N17" s="25">
-        <f t="shared" si="0"/>
-        <v>9172</v>
-      </c>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="33"/>
+      <c r="O17" s="67">
+        <f t="shared" si="0"/>
+        <v>9372</v>
+      </c>
+      <c r="P17" s="30"/>
+    </row>
+    <row r="18" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="26">
         <v>13</v>
       </c>
@@ -4365,11 +4402,11 @@
       </c>
       <c r="E18" s="26">
         <f>മാസവരി!Q18</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F18" s="28">
         <f>'പലിശ(10k)'!Q18</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G18" s="26">
         <v>5000</v>
@@ -4377,7 +4414,7 @@
       <c r="H18" s="26">
         <v>1200</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="39">
         <v>622</v>
       </c>
       <c r="J18" s="26">
@@ -4386,13 +4423,14 @@
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
       <c r="M18" s="33"/>
-      <c r="N18" s="25">
-        <f t="shared" si="0"/>
-        <v>7922</v>
-      </c>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="2:15" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="33"/>
+      <c r="O18" s="67">
+        <f t="shared" si="0"/>
+        <v>7822</v>
+      </c>
+      <c r="P18" s="30"/>
+    </row>
+    <row r="19" spans="2:16" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="26">
         <v>14</v>
       </c>
@@ -4417,47 +4455,48 @@
       <c r="H19" s="26">
         <v>900</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="39">
         <v>622</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="25">
-        <f>SUM(D19:M19)</f>
+      <c r="N19" s="33"/>
+      <c r="O19" s="67">
+        <f t="shared" si="0"/>
         <v>11822</v>
       </c>
-      <c r="O19" s="30"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:15" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="26">
         <f>SUM(D6:D19)</f>
-        <v>42600</v>
+        <v>44600</v>
       </c>
       <c r="E21" s="26">
         <f>SUM(E6:E19)</f>
-        <v>3850</v>
+        <v>3800</v>
       </c>
       <c r="F21" s="33">
         <f>SUM(F6:F19)</f>
-        <v>4000</v>
+        <v>3950</v>
       </c>
       <c r="G21" s="26">
         <f>SUM(G6:G19)</f>
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="H21" s="26">
         <f>SUM(H6:H20)</f>
-        <v>16350</v>
+        <v>16650</v>
       </c>
       <c r="I21" s="26">
         <f>SUM(I2:I20)</f>
@@ -4479,9 +4518,13 @@
         <f>SUM(M6:M19)</f>
         <v>17500</v>
       </c>
-      <c r="N21" s="35">
-        <f>SUM(N6:N20)</f>
-        <v>183086</v>
+      <c r="N21" s="33">
+        <f>SUM(N6:N19)</f>
+        <v>3525</v>
+      </c>
+      <c r="O21" s="35">
+        <f>SUM(O6:O20)</f>
+        <v>203811</v>
       </c>
     </row>
   </sheetData>
@@ -4491,7 +4534,7 @@
     <mergeCell ref="E3:I3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>